--- a/ObjetoscWyniki.xlsx
+++ b/ObjetoscWyniki.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Inzynierka\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7D9169-8D2B-467E-BE74-4755042D9975}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36003233-129C-4D8B-BD57-19C54537A037}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{08073A3F-9EDF-4CDA-AB39-19B9AF20734B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="re" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">re!$A$1:$G$14</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$G$14</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Sheet3!$A$1:$F$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>pacjent</t>
   </si>
@@ -68,157 +68,40 @@
     <t>Prostate3T-01-0001</t>
   </si>
   <si>
-    <t>21678.25</t>
-  </si>
-  <si>
-    <t>28081</t>
-  </si>
-  <si>
-    <t>23481.5</t>
-  </si>
-  <si>
     <t>Prostate3T-01-0006</t>
-  </si>
-  <si>
-    <t>49371.75</t>
-  </si>
-  <si>
-    <t>68668</t>
-  </si>
-  <si>
-    <t>55471.75</t>
   </si>
   <si>
     <t>Prostate3T-01-0007</t>
   </si>
   <si>
-    <t>9917.75</t>
-  </si>
-  <si>
-    <t>24806.5</t>
-  </si>
-  <si>
-    <t>18679.75</t>
-  </si>
-  <si>
     <t>Prostate3T-01-0008</t>
-  </si>
-  <si>
-    <t>27709.5</t>
-  </si>
-  <si>
-    <t>44875</t>
-  </si>
-  <si>
-    <t>34201.75</t>
   </si>
   <si>
     <t>Prostate3T-01-0009</t>
   </si>
   <si>
-    <t>81372.25</t>
-  </si>
-  <si>
-    <t>107769</t>
-  </si>
-  <si>
-    <t>86835.75</t>
-  </si>
-  <si>
     <t>ProstateDx-02-0002</t>
-  </si>
-  <si>
-    <t>89050.5</t>
-  </si>
-  <si>
-    <t>638992</t>
-  </si>
-  <si>
-    <t>248745.5</t>
   </si>
   <si>
     <t>ProstateDx-02-0003</t>
   </si>
   <si>
-    <t>145749</t>
-  </si>
-  <si>
-    <t>221833</t>
-  </si>
-  <si>
-    <t>168329.25</t>
-  </si>
-  <si>
     <t>ProstateDx-02-0004</t>
-  </si>
-  <si>
-    <t>91919.25</t>
-  </si>
-  <si>
-    <t>162448.5</t>
-  </si>
-  <si>
-    <t>116387.75</t>
   </si>
   <si>
     <t>ProstateDx-02-0005</t>
   </si>
   <si>
-    <t>50078</t>
-  </si>
-  <si>
-    <t>75321</t>
-  </si>
-  <si>
-    <t>59246.75</t>
-  </si>
-  <si>
     <t>ProstateDx-03-0002</t>
-  </si>
-  <si>
-    <t>98652</t>
-  </si>
-  <si>
-    <t>137690</t>
-  </si>
-  <si>
-    <t>111755</t>
   </si>
   <si>
     <t>ProstateDx-03-0003</t>
   </si>
   <si>
-    <t>66159.75</t>
-  </si>
-  <si>
-    <t>147515.5</t>
-  </si>
-  <si>
-    <t>109883</t>
-  </si>
-  <si>
     <t>ProstateDx-03-0004</t>
   </si>
   <si>
-    <t>124994.5</t>
-  </si>
-  <si>
-    <t>265676</t>
-  </si>
-  <si>
-    <t>192162.75</t>
-  </si>
-  <si>
     <t>ProstateDx-03-0005</t>
-  </si>
-  <si>
-    <t>113662.5</t>
-  </si>
-  <si>
-    <t>172718.5</t>
-  </si>
-  <si>
-    <t>137877.5</t>
   </si>
   <si>
     <t>odchylenie algorytmów naszych</t>
@@ -269,49 +152,49 @@
     <t>różnice</t>
   </si>
   <si>
-    <t xml:space="preserve"> trapez</t>
+    <t>avg</t>
   </si>
   <si>
-    <t xml:space="preserve"> otoczka najwiekszy</t>
+    <t>Przyblizenie elipsoida</t>
   </si>
   <si>
-    <t xml:space="preserve"> 47960.5</t>
+    <t>Suma voxeli</t>
   </si>
   <si>
-    <t xml:space="preserve"> 58901.5</t>
+    <t>Odchylenie</t>
   </si>
   <si>
-    <t xml:space="preserve"> 24694.75</t>
+    <t>Średnia objętość</t>
   </si>
   <si>
-    <t xml:space="preserve"> 48364.75</t>
+    <t>Źródło</t>
   </si>
   <si>
-    <t xml:space="preserve"> 129628.75</t>
+    <t>Wpisanie w kwadrat</t>
   </si>
   <si>
-    <t xml:space="preserve"> 141604.5</t>
+    <t xml:space="preserve"> Otoczka element</t>
   </si>
   <si>
-    <t xml:space="preserve"> 185655.25</t>
+    <t>Otoczka cała</t>
   </si>
   <si>
-    <t xml:space="preserve"> 176572</t>
+    <t>Column3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 117470</t>
+    <t xml:space="preserve">Algorytm </t>
   </si>
   <si>
-    <t xml:space="preserve"> 67898.75</t>
+    <t>różnica średniej</t>
   </si>
   <si>
-    <t xml:space="preserve"> 133893</t>
+    <t>Różnica odchylenia</t>
   </si>
   <si>
-    <t xml:space="preserve"> 81947.5</t>
+    <t>Najmniejsza wartość</t>
   </si>
   <si>
-    <t xml:space="preserve"> 125858.25</t>
+    <t>Największa wartość</t>
   </si>
 </sst>
 </file>
@@ -321,7 +204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,21 +221,79 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -361,72 +302,25 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -455,22 +349,87 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1640,6 +1599,814 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>re!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Średnia objętość</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>re!$M$7:$M$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>30174.707408726816</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25778.00907775891</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>re!$M$7:$M$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>30174.707408726816</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25778.00907775891</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>re!$J$7:$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Przyblizenie elipsoida</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suma voxeli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>re!$K$7:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>118066.30615384615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103111.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B84F-4877-ACEE-47B9312D60E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="984251992"/>
+        <c:axId val="984266424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="984251992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="984266424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="984266424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="984251992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Średnia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> objętość</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>re!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>re!$A$19:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Źródło</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Otoczka element</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wpisanie w kwadrat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Otoczka cała</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>re!$B$19:$B$22</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AA0-4B53-B28E-7E67E1964B0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>re!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>re!$A$19:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Źródło</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Otoczka element</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wpisanie w kwadrat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Otoczka cała</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>re!$C$19:$C$22</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8AA0-4B53-B28E-7E67E1964B0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>re!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>re!$E$19:$E$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>25778.00907775891</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20793.145285241601</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>80674.057210032304</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>34621.673470116868</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>re!$E$19:$E$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>25778.00907775891</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20793.145285241601</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>80674.057210032304</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>34621.673470116868</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>re!$A$19:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Źródło</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Otoczka element</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wpisanie w kwadrat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Otoczka cała</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>re!$D$19:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>103111.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74639.61538461539</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>161261.07692307694</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104850.61538461539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8AA0-4B53-B28E-7E67E1964B0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="984263800"/>
+        <c:axId val="505437272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="984263800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="505437272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="505437272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="984263800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1720,6 +2487,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -2226,6 +3073,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2805,6 +4658,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE6E85BF-D8FF-483D-9F25-7A54E8E0476B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A241FB4B-232B-4D32-AB9A-CEC81C31BC95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{4C8E9B1E-147A-44F2-808A-9A1EC3ECE2E4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12" unboundColumnsRight="4">
@@ -2827,14 +4757,17 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{13EAB455-FD2B-455E-B845-C9B01523A5B6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="10" unboundColumnsRight="2">
+    <queryTableFields count="9">
       <queryTableField id="1" name="pacjent" tableColumnId="1"/>
       <queryTableField id="2" name="szpital" tableColumnId="2"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
       <queryTableField id="3" name=" trapez" tableColumnId="3"/>
       <queryTableField id="4" name=" otoczka najwiekszy" tableColumnId="4"/>
       <queryTableField id="5" name="kwadrat" tableColumnId="5"/>
       <queryTableField id="6" name="otoczka cala" tableColumnId="6"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -2844,32 +4777,32 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E6AA635-485C-4947-BC3A-EE1748B3650E}" name="Wyniki" displayName="Wyniki" ref="A1:K15" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A1:K14" xr:uid="{63522F72-93A4-4C34-AD9B-8FACA3BE7E6E}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C6190478-C4AD-4E5F-A701-7558C2C38AC3}" uniqueName="1" name="pacjent" queryTableFieldId="1" dataDxfId="23" totalsRowDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{C6190478-C4AD-4E5F-A701-7558C2C38AC3}" uniqueName="1" name="pacjent" queryTableFieldId="1" dataDxfId="27" totalsRowDxfId="26"/>
     <tableColumn id="2" xr3:uid="{A27A088E-9E02-4ECD-88C6-7A09701462F8}" uniqueName="2" name="prostopadloscian" totalsRowLabel="średnia" queryTableFieldId="2"/>
-    <tableColumn id="11" xr3:uid="{BD166031-4E40-49B2-AAE4-77262E76D4CC}" uniqueName="11" name="Column2" queryTableFieldId="11" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{DA312FBA-C74A-4FB4-98DB-2781F0980DA8}" uniqueName="7" name="prosopadloscian" totalsRowFunction="custom" queryTableFieldId="7" dataDxfId="18" totalsRowDxfId="14">
+    <tableColumn id="11" xr3:uid="{BD166031-4E40-49B2-AAE4-77262E76D4CC}" uniqueName="11" name="Column2" queryTableFieldId="11" dataDxfId="25" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{DA312FBA-C74A-4FB4-98DB-2781F0980DA8}" uniqueName="7" name="prosopadloscian" totalsRowFunction="custom" queryTableFieldId="7" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>Wyniki[[#This Row],[prostopadloscian]]*0.54</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Wyniki[prosopadloscian])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{778D2414-11D2-4CD0-B258-E7E0669C1332}" uniqueName="3" name="otoczka najwiekszy" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="22" totalsRowDxfId="13">
+    <tableColumn id="3" xr3:uid="{778D2414-11D2-4CD0-B258-E7E0669C1332}" uniqueName="3" name="otoczka najwiekszy" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="22" totalsRowDxfId="21">
       <totalsRowFormula>AVERAGE(Wyniki[otoczka najwiekszy])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5BB4AA90-248C-4991-A447-2B243231132A}" uniqueName="4" name="kwadrat" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="21" totalsRowDxfId="12">
+    <tableColumn id="4" xr3:uid="{5BB4AA90-248C-4991-A447-2B243231132A}" uniqueName="4" name="kwadrat" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="20" totalsRowDxfId="19">
       <totalsRowFormula>AVERAGE(Wyniki[kwadrat])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{93814689-5C3A-4F54-8D9F-1F47ECC92610}" uniqueName="5" name="otoczka cala" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="20" totalsRowDxfId="11">
+    <tableColumn id="5" xr3:uid="{93814689-5C3A-4F54-8D9F-1F47ECC92610}" uniqueName="5" name="otoczka cala" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="18" totalsRowDxfId="17">
       <totalsRowFormula>AVERAGE(Wyniki[otoczka cala])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C80ABBE9-D3B0-4B3E-90B6-2098EB634939}" uniqueName="10" name="Column1" queryTableFieldId="10" dataDxfId="6" totalsRowDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{9D4184C4-5677-44D9-A06E-25E248E570DA}" uniqueName="6" name="odchylenie algorytmów naszych" totalsRowFunction="custom" queryTableFieldId="6" dataDxfId="19" totalsRowDxfId="10">
+    <tableColumn id="10" xr3:uid="{C80ABBE9-D3B0-4B3E-90B6-2098EB634939}" uniqueName="10" name="Column1" queryTableFieldId="10" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{9D4184C4-5677-44D9-A06E-25E248E570DA}" uniqueName="6" name="odchylenie algorytmów naszych" totalsRowFunction="custom" queryTableFieldId="6" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>_xlfn.STDEV.P(Wyniki[[#This Row],[otoczka najwiekszy]:[otoczka cala]])</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Wyniki[odchylenie algorytmów naszych])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5B76A8FF-B451-4B64-B0AA-1EA1C57EC11A}" uniqueName="8" name="srednia" totalsRowFunction="custom" queryTableFieldId="8" dataDxfId="17" totalsRowDxfId="9">
+    <tableColumn id="8" xr3:uid="{5B76A8FF-B451-4B64-B0AA-1EA1C57EC11A}" uniqueName="8" name="srednia" totalsRowFunction="custom" queryTableFieldId="8" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>AVERAGE(Wyniki[[#This Row],[otoczka najwiekszy]:[otoczka cala]])</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Wyniki[srednia])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{28CE8DD4-E398-44A3-8076-96221AC53CCB}" uniqueName="9" name="roznica miedzy srednia a szpitalem" totalsRowFunction="custom" queryTableFieldId="9" dataDxfId="16" totalsRowDxfId="8">
+    <tableColumn id="9" xr3:uid="{28CE8DD4-E398-44A3-8076-96221AC53CCB}" uniqueName="9" name="roznica miedzy srednia a szpitalem" totalsRowFunction="custom" queryTableFieldId="9" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>Wyniki[[#This Row],[prosopadloscian]]-Wyniki[[#This Row],[srednia]]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Wyniki[roznica miedzy srednia a szpitalem])</totalsRowFormula>
     </tableColumn>
@@ -2879,15 +4812,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{143E43B5-1A07-47C4-8AFA-1C32016EFA35}" name="Wyniki__2" displayName="Wyniki__2" ref="A1:F14" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F14" xr:uid="{D737F12C-9271-46FF-B17A-CAB9339DD6F7}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D54EF529-78FD-4873-B304-9BA5130C95A1}" uniqueName="1" name="pacjent" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{37461A10-7867-44CB-BB47-997A36801661}" uniqueName="2" name="szpital" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{2323448A-62D9-4B67-B872-3803D6E286C5}" uniqueName="3" name=" trapez" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{3F527D16-EBF8-4117-AB11-754FEE2B658D}" uniqueName="4" name=" otoczka najwiekszy" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{97657FF7-9CEA-4D2F-A91A-72C607668AC8}" uniqueName="5" name="kwadrat" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{16F94533-08CE-462D-B0DB-5377F751DF9E}" uniqueName="6" name="otoczka cala" queryTableFieldId="6" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{143E43B5-1A07-47C4-8AFA-1C32016EFA35}" name="Wyniki__2" displayName="Wyniki__2" ref="A1:I14" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I14" xr:uid="{D737F12C-9271-46FF-B17A-CAB9339DD6F7}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{D54EF529-78FD-4873-B304-9BA5130C95A1}" uniqueName="1" name="pacjent" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{37461A10-7867-44CB-BB47-997A36801661}" uniqueName="2" name="szpital" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{BFFD4174-8FB1-463C-9019-8604D3D81D15}" uniqueName="7" name="Column1" queryTableFieldId="7" dataDxfId="2">
+      <calculatedColumnFormula>Wyniki__2[[#This Row],[szpital]]*0.54</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{2323448A-62D9-4B67-B872-3803D6E286C5}" uniqueName="3" name="Źródło" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{3F527D16-EBF8-4117-AB11-754FEE2B658D}" uniqueName="4" name=" Otoczka element" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{97657FF7-9CEA-4D2F-A91A-72C607668AC8}" uniqueName="5" name="Wpisanie w kwadrat" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{16F94533-08CE-462D-B0DB-5377F751DF9E}" uniqueName="6" name="Otoczka cała" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{E7F8F337-8223-4722-9831-CEE432B15FBD}" uniqueName="8" name="Column2" queryTableFieldId="8" dataDxfId="1">
+      <calculatedColumnFormula>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[Otoczka cała]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{BDCBCE4F-8C36-4B7D-9223-C913A8C087AD}" uniqueName="9" name="Column3" queryTableFieldId="9" dataDxfId="0">
+      <calculatedColumnFormula>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[ Otoczka element]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3193,7 +5135,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3214,13 +5156,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -3232,16 +5174,16 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3281,7 +5223,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>151632</v>
@@ -3316,7 +5258,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>78300</v>
@@ -3351,7 +5293,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>126048</v>
@@ -3386,7 +5328,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>265013</v>
@@ -3421,7 +5363,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>321408</v>
@@ -3456,7 +5398,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>410040</v>
@@ -3491,7 +5433,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>387072</v>
@@ -3526,7 +5468,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>288750</v>
@@ -3561,7 +5503,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
         <v>119970</v>
@@ -3596,7 +5538,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
         <v>251904</v>
@@ -3631,7 +5573,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>129195</v>
@@ -3666,7 +5608,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
         <v>219450</v>
@@ -3702,7 +5644,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3">
         <f>AVERAGE(Wyniki[prosopadloscian])</f>
@@ -3736,7 +5678,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3">
         <f>STDEV(Wyniki[prosopadloscian])</f>
@@ -3770,7 +5712,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3">
         <f>MIN(Wyniki[prosopadloscian])</f>
@@ -3804,7 +5746,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3">
         <f>MAX(Wyniki[prosopadloscian])</f>
@@ -3838,24 +5780,24 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3">
         <f>AVERAGE(Wyniki[prosopadloscian])</f>
@@ -3880,7 +5822,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3">
         <f>AVERAGE(Wyniki[otoczka najwiekszy])</f>
@@ -3905,7 +5847,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3">
         <f>AVERAGE(Wyniki[kwadrat])</f>
@@ -3930,7 +5872,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3">
         <f>AVERAGE(Wyniki[otoczka cala])</f>
@@ -3961,21 +5903,21 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4">
         <f>(B$22-B22)/B$22</f>
@@ -3996,7 +5938,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4">
         <f>(B23-B$22)/B$22</f>
@@ -4017,7 +5959,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ref="B31:B32" si="1">(B24-B$22)/B$22</f>
@@ -4038,7 +5980,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" si="1"/>
@@ -4059,24 +6001,24 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>118066.30615384615</v>
@@ -4093,7 +6035,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B51" s="3">
         <f>STDEV(Wyniki[prosopadloscian])</f>
@@ -4141,23 +6083,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0187C375-44B4-4A2D-8912-56799A9F46A9}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4165,282 +6114,893 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>93555</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3">
+        <f>Wyniki__2[[#This Row],[szpital]]*0.54</f>
+        <v>50519.700000000004</v>
+      </c>
+      <c r="D2" s="3">
+        <v>47960.5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>21678.25</v>
+      </c>
+      <c r="F2" s="3">
+        <v>28081</v>
+      </c>
+      <c r="G2" s="3">
+        <v>23481.5</v>
+      </c>
+      <c r="H2" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[Otoczka cała]]</f>
+        <v>24479</v>
+      </c>
+      <c r="I2" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[ Otoczka element]]</f>
+        <v>26282.25</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B3" s="3">
+        <v>151632</v>
+      </c>
+      <c r="C3" s="3">
+        <f>Wyniki__2[[#This Row],[szpital]]*0.54</f>
+        <v>81881.279999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>58901.5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>49371.75</v>
+      </c>
+      <c r="F3" s="3">
+        <v>68668</v>
+      </c>
+      <c r="G3" s="3">
+        <v>55471.75</v>
+      </c>
+      <c r="H3" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[Otoczka cała]]</f>
+        <v>3429.75</v>
+      </c>
+      <c r="I3" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[ Otoczka element]]</f>
+        <v>9529.75</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="9">
+        <v>47960.5</v>
+      </c>
+      <c r="W3" t="str">
+        <f>_xlfn.CONCAT(E2,"(",$D2-E2,")")</f>
+        <v>21678,25(26282,25)</v>
+      </c>
+      <c r="X3" t="str">
+        <f>_xlfn.CONCAT(F2,"(",$D2-F2,")")</f>
+        <v>28081(19879,5)</v>
+      </c>
+      <c r="Y3" t="str">
+        <f>_xlfn.CONCAT(G2,"(",$D2-G2,")")</f>
+        <v>23481,5(24479)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B4" s="3">
+        <v>78300</v>
+      </c>
+      <c r="C4" s="3">
+        <f>Wyniki__2[[#This Row],[szpital]]*0.54</f>
+        <v>42282</v>
+      </c>
+      <c r="D4" s="3">
+        <v>24694.75</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9917.75</v>
+      </c>
+      <c r="F4" s="3">
+        <v>24806.5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>18679.75</v>
+      </c>
+      <c r="H4" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[Otoczka cała]]</f>
+        <v>6015</v>
+      </c>
+      <c r="I4" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[ Otoczka element]]</f>
+        <v>14777</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="10">
+        <v>58901.5</v>
+      </c>
+      <c r="W4" t="str">
+        <f>_xlfn.CONCAT(E3,"(",$D3-E3,")")</f>
+        <v>49371,75(9529,75)</v>
+      </c>
+      <c r="X4" t="str">
+        <f>_xlfn.CONCAT(F3,"(",$D3-F3,")")</f>
+        <v>68668(-9766,5)</v>
+      </c>
+      <c r="Y4" t="str">
+        <f>_xlfn.CONCAT(G3,"(",$D3-G3,")")</f>
+        <v>55471,75(3429,75)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="3">
+        <v>126048</v>
+      </c>
+      <c r="C5" s="3">
+        <f>Wyniki__2[[#This Row],[szpital]]*0.54</f>
+        <v>68065.919999999998</v>
+      </c>
+      <c r="D5" s="3">
+        <v>48364.75</v>
+      </c>
+      <c r="E5" s="3">
+        <v>27709.5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44875</v>
+      </c>
+      <c r="G5" s="3">
+        <v>34201.75</v>
+      </c>
+      <c r="H5" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[Otoczka cała]]</f>
+        <v>14163</v>
+      </c>
+      <c r="I5" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[ Otoczka element]]</f>
+        <v>20655.25</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="9">
+        <v>24694.75</v>
+      </c>
+      <c r="W5" t="str">
+        <f>_xlfn.CONCAT(E4,"(",$D4-E4,")")</f>
+        <v>9917,75(14777)</v>
+      </c>
+      <c r="X5" t="str">
+        <f>_xlfn.CONCAT(F4,"(",$D4-F4,")")</f>
+        <v>24806,5(-111,75)</v>
+      </c>
+      <c r="Y5" t="str">
+        <f>_xlfn.CONCAT(G4,"(",$D4-G4,")")</f>
+        <v>18679,75(6015)</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>151632</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B6" s="3">
+        <v>265013</v>
+      </c>
+      <c r="C6" s="3">
+        <f>Wyniki__2[[#This Row],[szpital]]*0.54</f>
+        <v>143107.02000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <v>129628.75</v>
+      </c>
+      <c r="E6" s="3">
+        <v>81372.25</v>
+      </c>
+      <c r="F6" s="3">
+        <v>107769</v>
+      </c>
+      <c r="G6" s="3">
+        <v>86835.75</v>
+      </c>
+      <c r="H6" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[Otoczka cała]]</f>
+        <v>42793</v>
+      </c>
+      <c r="I6" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[ Otoczka element]]</f>
+        <v>48256.5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V6" s="10">
+        <v>48364.75</v>
+      </c>
+      <c r="W6" t="str">
+        <f>_xlfn.CONCAT(E5,"(",$D5-E5,")")</f>
+        <v>27709,5(20655,25)</v>
+      </c>
+      <c r="X6" t="str">
+        <f>_xlfn.CONCAT(F5,"(",$D5-F5,")")</f>
+        <v>44875(3489,75)</v>
+      </c>
+      <c r="Y6" t="str">
+        <f>_xlfn.CONCAT(G5,"(",$D5-G5,")")</f>
+        <v>34201,75(14163)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B7" s="3">
+        <v>321408</v>
+      </c>
+      <c r="C7" s="3">
+        <f>Wyniki__2[[#This Row],[szpital]]*0.54</f>
+        <v>173560.32000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>141604.5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>89050.5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>638992</v>
+      </c>
+      <c r="G7" s="3">
+        <v>248745.5</v>
+      </c>
+      <c r="H7" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[Otoczka cała]]</f>
+        <v>-107141</v>
+      </c>
+      <c r="I7" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[ Otoczka element]]</f>
+        <v>52554</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="3">
+        <f>AVERAGE(Wyniki__2[Column1])</f>
+        <v>118066.30615384615</v>
+      </c>
+      <c r="L7">
+        <f>STDEV(Wyniki__2[Column1])</f>
+        <v>60349.414817453631</v>
+      </c>
+      <c r="M7">
+        <f>L7/2</f>
+        <v>30174.707408726816</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="9">
+        <v>129628.75</v>
+      </c>
+      <c r="W7" t="str">
+        <f>_xlfn.CONCAT(E6,"(",$D6-E6,")")</f>
+        <v>81372,25(48256,5)</v>
+      </c>
+      <c r="X7" t="str">
+        <f>_xlfn.CONCAT(F6,"(",$D6-F6,")")</f>
+        <v>107769(21859,75)</v>
+      </c>
+      <c r="Y7" t="str">
+        <f>_xlfn.CONCAT(G6,"(",$D6-G6,")")</f>
+        <v>86835,75(42793)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="B8" s="3">
+        <v>410040</v>
+      </c>
+      <c r="C8" s="3">
+        <f>Wyniki__2[[#This Row],[szpital]]*0.54</f>
+        <v>221421.6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>185655.25</v>
+      </c>
+      <c r="E8" s="3">
+        <v>145749</v>
+      </c>
+      <c r="F8" s="3">
+        <v>221833</v>
+      </c>
+      <c r="G8" s="3">
+        <v>168329.25</v>
+      </c>
+      <c r="H8" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[Otoczka cała]]</f>
+        <v>17326</v>
+      </c>
+      <c r="I8" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[ Otoczka element]]</f>
+        <v>39906.25</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="3">
+        <f>AVERAGE(Wyniki__2[Źródło])</f>
+        <v>103111.5</v>
+      </c>
+      <c r="L8">
+        <f>STDEV(Wyniki__2[Źródło])</f>
+        <v>51556.018155517821</v>
+      </c>
+      <c r="M8">
+        <f>L8/2</f>
+        <v>25778.00907775891</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="10">
+        <v>141604.5</v>
+      </c>
+      <c r="W8" t="str">
+        <f>_xlfn.CONCAT(E7,"(",$D7-E7,")")</f>
+        <v>89050,5(52554)</v>
+      </c>
+      <c r="X8" t="str">
+        <f>_xlfn.CONCAT(F7,"(",$D7-F7,")")</f>
+        <v>638992(-497387,5)</v>
+      </c>
+      <c r="Y8" t="str">
+        <f>_xlfn.CONCAT(G7,"(",$D7-G7,")")</f>
+        <v>248745,5(-107141)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B9" s="3">
+        <v>387072</v>
+      </c>
+      <c r="C9" s="3">
+        <f>Wyniki__2[[#This Row],[szpital]]*0.54</f>
+        <v>209018.88</v>
+      </c>
+      <c r="D9" s="3">
+        <v>176572</v>
+      </c>
+      <c r="E9" s="3">
+        <v>91919.25</v>
+      </c>
+      <c r="F9" s="3">
+        <v>162448.5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>116387.75</v>
+      </c>
+      <c r="H9" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[Otoczka cała]]</f>
+        <v>60184.25</v>
+      </c>
+      <c r="I9" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[ Otoczka element]]</f>
+        <v>84652.75</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="V9" s="9">
+        <v>185655.25</v>
+      </c>
+      <c r="W9" t="str">
+        <f>_xlfn.CONCAT(E8,"(",$D8-E8,")")</f>
+        <v>145749(39906,25)</v>
+      </c>
+      <c r="X9" t="str">
+        <f>_xlfn.CONCAT(F8,"(",$D8-F8,")")</f>
+        <v>221833(-36177,75)</v>
+      </c>
+      <c r="Y9" t="str">
+        <f>_xlfn.CONCAT(G8,"(",$D8-G8,")")</f>
+        <v>168329,25(17326)</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>78300</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B10" s="3">
+        <v>288750</v>
+      </c>
+      <c r="C10" s="3">
+        <f>Wyniki__2[[#This Row],[szpital]]*0.54</f>
+        <v>155925</v>
+      </c>
+      <c r="D10" s="3">
+        <v>117470</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50078</v>
+      </c>
+      <c r="F10" s="3">
+        <v>75321</v>
+      </c>
+      <c r="G10" s="3">
+        <v>59246.75</v>
+      </c>
+      <c r="H10" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[Otoczka cała]]</f>
+        <v>58223.25</v>
+      </c>
+      <c r="I10" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[ Otoczka element]]</f>
+        <v>67392</v>
+      </c>
+      <c r="K10" s="4">
+        <f>(K8-K7)/K8</f>
+        <v>-0.14503528853567399</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="3">
+        <f>K7-K8</f>
+        <v>14954.806153846148</v>
+      </c>
+      <c r="V10" s="10">
+        <v>176572</v>
+      </c>
+      <c r="W10" t="str">
+        <f>_xlfn.CONCAT(E9,"(",$D9-E9,")")</f>
+        <v>91919,25(84652,75)</v>
+      </c>
+      <c r="X10" t="str">
+        <f>_xlfn.CONCAT(F9,"(",$D9-F9,")")</f>
+        <v>162448,5(14123,5)</v>
+      </c>
+      <c r="Y10" t="str">
+        <f>_xlfn.CONCAT(G9,"(",$D9-G9,")")</f>
+        <v>116387,75(60184,25)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B11" s="3">
+        <v>119970</v>
+      </c>
+      <c r="C11" s="3">
+        <f>Wyniki__2[[#This Row],[szpital]]*0.54</f>
+        <v>64783.8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>67898.75</v>
+      </c>
+      <c r="E11" s="3">
+        <v>98652</v>
+      </c>
+      <c r="F11" s="3">
+        <v>137690</v>
+      </c>
+      <c r="G11" s="3">
+        <v>111755</v>
+      </c>
+      <c r="H11" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[Otoczka cała]]</f>
+        <v>-43856.25</v>
+      </c>
+      <c r="I11" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[ Otoczka element]]</f>
+        <v>-30753.25</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V11" s="9">
+        <v>117470</v>
+      </c>
+      <c r="W11" t="str">
+        <f>_xlfn.CONCAT(E10,"(",$D10-E10,")")</f>
+        <v>50078(67392)</v>
+      </c>
+      <c r="X11" t="str">
+        <f>_xlfn.CONCAT(F10,"(",$D10-F10,")")</f>
+        <v>75321(42149)</v>
+      </c>
+      <c r="Y11" t="str">
+        <f>_xlfn.CONCAT(G10,"(",$D10-G10,")")</f>
+        <v>59246,75(58223,25)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="B12" s="3">
+        <v>251904</v>
+      </c>
+      <c r="C12" s="3">
+        <f>Wyniki__2[[#This Row],[szpital]]*0.54</f>
+        <v>136028.16</v>
+      </c>
+      <c r="D12" s="3">
+        <v>133893</v>
+      </c>
+      <c r="E12" s="3">
+        <v>66159.75</v>
+      </c>
+      <c r="F12" s="3">
+        <v>147515.5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>109883</v>
+      </c>
+      <c r="H12" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[Otoczka cała]]</f>
+        <v>24010</v>
+      </c>
+      <c r="I12" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[ Otoczka element]]</f>
+        <v>67733.25</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V12" s="10">
+        <v>67898.75</v>
+      </c>
+      <c r="W12" t="str">
+        <f>_xlfn.CONCAT(E11,"(",$D11-E11,")")</f>
+        <v>98652(-30753,25)</v>
+      </c>
+      <c r="X12" t="str">
+        <f>_xlfn.CONCAT(F11,"(",$D11-F11,")")</f>
+        <v>137690(-69791,25)</v>
+      </c>
+      <c r="Y12" t="str">
+        <f>_xlfn.CONCAT(G11,"(",$D11-G11,")")</f>
+        <v>111755(-43856,25)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B13" s="3">
+        <v>129195</v>
+      </c>
+      <c r="C13" s="3">
+        <f>Wyniki__2[[#This Row],[szpital]]*0.54</f>
+        <v>69765.3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>81947.5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>124994.5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>265676</v>
+      </c>
+      <c r="G13" s="3">
+        <v>192162.75</v>
+      </c>
+      <c r="H13" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[Otoczka cała]]</f>
+        <v>-110215.25</v>
+      </c>
+      <c r="I13" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[ Otoczka element]]</f>
+        <v>-43047</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="V13" s="9">
+        <v>133893</v>
+      </c>
+      <c r="W13" t="str">
+        <f>_xlfn.CONCAT(E12,"(",$D12-E12,")")</f>
+        <v>66159,75(67733,25)</v>
+      </c>
+      <c r="X13" t="str">
+        <f>_xlfn.CONCAT(F12,"(",$D12-F12,")")</f>
+        <v>147515,5(-13622,5)</v>
+      </c>
+      <c r="Y13" t="str">
+        <f>_xlfn.CONCAT(G12,"(",$D12-G12,")")</f>
+        <v>109883(24010)</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>126048</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
+      <c r="B14" s="3">
+        <v>219450</v>
+      </c>
+      <c r="C14" s="3">
+        <f>Wyniki__2[[#This Row],[szpital]]*0.54</f>
+        <v>118503.00000000001</v>
+      </c>
+      <c r="D14" s="3">
+        <v>125858.25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>113662.5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>172718.5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>137877.5</v>
+      </c>
+      <c r="H14" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[Otoczka cała]]</f>
+        <v>-12019.25</v>
+      </c>
+      <c r="I14" s="3">
+        <f>Wyniki__2[[#This Row],[Źródło]]-Wyniki__2[[#This Row],[ Otoczka element]]</f>
+        <v>12195.75</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" s="10">
+        <v>81947.5</v>
+      </c>
+      <c r="W14" t="str">
+        <f>_xlfn.CONCAT(E13,"(",$D13-E13,")")</f>
+        <v>124994,5(-43047)</v>
+      </c>
+      <c r="X14" t="str">
+        <f>_xlfn.CONCAT(F13,"(",$D13-F13,")")</f>
+        <v>265676(-183728,5)</v>
+      </c>
+      <c r="Y14" t="str">
+        <f>_xlfn.CONCAT(G13,"(",$D13-G13,")")</f>
+        <v>192162,75(-110215,25)</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>265013</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15" s="9">
+        <v>125858.25</v>
+      </c>
+      <c r="W15" t="str">
+        <f>_xlfn.CONCAT(E14,"(",$D14-E14,")")</f>
+        <v>113662,5(12195,75)</v>
+      </c>
+      <c r="X15" t="str">
+        <f>_xlfn.CONCAT(F14,"(",$D14-F14,")")</f>
+        <v>172718,5(-46860,25)</v>
+      </c>
+      <c r="Y15" t="str">
+        <f>_xlfn.CONCAT(G14,"(",$D14-G14,")")</f>
+        <v>137877,5(-12019,25)</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>321408</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>410040</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(Wyniki__2[Źródło])</f>
+        <v>103111.5</v>
+      </c>
+      <c r="E19">
+        <f>STDEV(Wyniki__2[Źródło])/2</f>
+        <v>25778.00907775891</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9">
-        <v>387072</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(Wyniki__2[[ Otoczka element]])</f>
+        <v>74639.61538461539</v>
+      </c>
+      <c r="E20">
+        <f>STDEV(Wyniki__2[ [ Otoczka element] ])/2</f>
+        <v>20793.145285241601</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
-        <v>288750</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="D21">
+        <f>AVERAGE(Wyniki__2[Wpisanie w kwadrat])</f>
+        <v>161261.07692307694</v>
+      </c>
+      <c r="E21">
+        <f>STDEV(Wyniki__2[Wpisanie w kwadrat])/2</f>
+        <v>80674.057210032304</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(Wyniki__2[Otoczka cała])</f>
+        <v>104850.61538461539</v>
+      </c>
+      <c r="E22">
+        <f>STDEV(Wyniki__2[Otoczka cała])/2</f>
+        <v>34621.673470116868</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B11">
-        <v>119970</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="D26" s="4">
+        <f>(D$19-D20)/D$19</f>
+        <v>0.27612714988516907</v>
+      </c>
+      <c r="E26" s="4">
+        <f>(E$19-E20)/E$19</f>
+        <v>0.19337660164059048</v>
+      </c>
+      <c r="F26">
+        <f>MIN(Wyniki__2[[ Otoczka element]])</f>
+        <v>9917.75</v>
+      </c>
+      <c r="G26">
+        <f>MAX(Wyniki__2[[ Otoczka element]])</f>
+        <v>145749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" ref="D27:E28" si="0">(D$19-D21)/D$19</f>
+        <v>-0.56394851130161949</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.1295689658064916</v>
+      </c>
+      <c r="F27">
+        <f>MIN(Wyniki__2[Wpisanie w kwadrat])</f>
+        <v>24806.5</v>
+      </c>
+      <c r="G27">
+        <f>MAX(Wyniki__2[Wpisanie w kwadrat])</f>
+        <v>638992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12">
-        <v>251904</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13">
-        <v>129195</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14">
-        <v>219450</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>56</v>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.686635714362986E-2</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.34307010931997112</v>
+      </c>
+      <c r="F28">
+        <f>MIN(Wyniki__2[Otoczka cała])</f>
+        <v>18679.75</v>
+      </c>
+      <c r="G28">
+        <f>MAX(Wyniki__2[Otoczka cała])</f>
+        <v>248745.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
